--- a/biology/Botanique/Suriana_maritima/Suriana_maritima.xlsx
+++ b/biology/Botanique/Suriana_maritima/Suriana_maritima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Suriana maritima est un arbuste de la famille des Surianaceae naturellement présent sur de nombreux rivages tropicaux.  C'est l'une des espèces connues aux Mascareignes sous le nom de bois matelot. C'est l'unique espèce du genre Suriana.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste atteignant 1 à 2 mètres de haut.
 Fleurs solitaires jaunes à 5 pétales, 5 sépales et 5 étamines
